--- a/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7DAACF-055F-41DD-B217-66002E878728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,11 +238,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +637,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -634,10 +649,10 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -652,10 +667,10 @@
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -696,7 +711,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="12">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -708,10 +723,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
         <v>0</v>
       </c>
       <c r="Q2" s="5">
@@ -726,10 +741,10 @@
       <c r="T2" s="8">
         <v>0</v>
       </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
         <v>0</v>
       </c>
       <c r="W2">
@@ -776,8 +791,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="2">
-        <v>4.2999999999999997E-2</v>
+      <c r="K3" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -788,11 +803,11 @@
       <c r="N3" s="2">
         <v>2.94</v>
       </c>
-      <c r="O3" s="2">
-        <v>2.6709999999999998</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.13800000000000001</v>
+      <c r="O3" s="12">
+        <v>2.0065</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0.67849999999999999</v>
       </c>
       <c r="Q3" s="6">
         <v>9999</v>
@@ -806,11 +821,11 @@
       <c r="T3" s="8">
         <v>0</v>
       </c>
-      <c r="U3" s="8">
-        <v>177.70699999999999</v>
-      </c>
-      <c r="V3" s="8">
-        <v>14.922000000000001</v>
+      <c r="U3" s="14">
+        <v>108.2555</v>
+      </c>
+      <c r="V3" s="14">
+        <v>63.486499999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -856,7 +871,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="12">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -868,11 +883,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="P4" s="2">
-        <v>5.6000000000000001E-2</v>
+      <c r="O4" s="12">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.20349999999999999</v>
       </c>
       <c r="Q4" s="6">
         <v>9999</v>
@@ -882,16 +897,16 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.41949999999999998</v>
+        <v>0.31674999999999998</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
         <v>0</v>
       </c>
       <c r="W4">
@@ -938,8 +953,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="2">
-        <v>4.1000000000000002E-2</v>
+      <c r="K5" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -950,11 +965,11 @@
       <c r="N5" s="2">
         <v>3.9049999999999998</v>
       </c>
-      <c r="O5" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.17799999999999999</v>
+      <c r="O5" s="12">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.628</v>
       </c>
       <c r="Q5" s="6">
         <v>9999</v>
@@ -968,11 +983,11 @@
       <c r="T5" s="8">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>146.732</v>
-      </c>
-      <c r="V5" s="8">
-        <v>20.474</v>
+      <c r="U5" s="14">
+        <v>84.636499999999998</v>
+      </c>
+      <c r="V5" s="14">
+        <v>69.209000000000003</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1018,7 +1033,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="12">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1030,11 +1045,11 @@
       <c r="N6" s="2">
         <v>2.206</v>
       </c>
-      <c r="O6" s="2">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.20399999999999999</v>
+      <c r="O6" s="12">
+        <v>1.4584999999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.57899999999999996</v>
       </c>
       <c r="Q6" s="6">
         <v>9999</v>
@@ -1048,11 +1063,11 @@
       <c r="T6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="8">
-        <v>37.835000000000001</v>
-      </c>
-      <c r="V6" s="8">
-        <v>60.267000000000003</v>
+      <c r="U6" s="14">
+        <v>22.809000000000001</v>
+      </c>
+      <c r="V6" s="14">
+        <v>45.003</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1098,8 +1113,9 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="2">
-        <v>3.4</v>
+      <c r="K7" s="12">
+        <f>3.4/2</f>
+        <v>1.7</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1112,13 +1128,13 @@
         <f>38.284/30</f>
         <v>1.2761333333333333</v>
       </c>
-      <c r="O7" s="7">
-        <f>12.372/30</f>
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="P7" s="7">
-        <f>1.668/30</f>
-        <v>5.5599999999999997E-2</v>
+      <c r="O7" s="13">
+        <f>7.1805/30</f>
+        <v>0.23935000000000001</v>
+      </c>
+      <c r="P7" s="13">
+        <f>4.40475/30</f>
+        <v>0.14682500000000001</v>
       </c>
       <c r="Q7" s="6">
         <v>9999</v>
@@ -1132,13 +1148,13 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="8">
-        <f>740.509/30</f>
-        <v>24.683633333333333</v>
-      </c>
-      <c r="V7" s="8">
-        <f>271.113/30</f>
-        <v>9.0371000000000006</v>
+      <c r="U7" s="14">
+        <f>417.85375/30</f>
+        <v>13.928458333333333</v>
+      </c>
+      <c r="V7" s="14">
+        <f>324.7765/30</f>
+        <v>10.825883333333334</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1184,8 +1200,9 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="2">
-        <v>3.4</v>
+      <c r="K8" s="12">
+        <f t="shared" ref="K8:K9" si="0">3.4/2</f>
+        <v>1.7</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1196,13 +1213,13 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
-        <f>5.542/30</f>
-        <v>0.18473333333333333</v>
-      </c>
-      <c r="P8" s="2">
-        <f>1.704/30</f>
-        <v>5.6799999999999996E-2</v>
+      <c r="O8" s="12">
+        <f>3.548/30</f>
+        <v>0.11826666666666667</v>
+      </c>
+      <c r="P8" s="12">
+        <f>2.4825/30</f>
+        <v>8.2750000000000004E-2</v>
       </c>
       <c r="Q8" s="6">
         <v>9999</v>
@@ -1212,16 +1229,16 @@
       </c>
       <c r="S8" s="9">
         <f>O8*0.5</f>
-        <v>9.2366666666666666E-2</v>
+        <v>5.9133333333333336E-2</v>
       </c>
       <c r="T8" s="9">
         <f>P8*0.5</f>
-        <v>2.8399999999999998E-2</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
+        <v>4.1375000000000002E-2</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
         <v>0</v>
       </c>
       <c r="W8">
@@ -1268,8 +1285,9 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="2">
-        <v>3.4</v>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1282,13 +1300,13 @@
         <f>68.396/30</f>
         <v>2.2798666666666665</v>
       </c>
-      <c r="O9" s="7">
-        <f>16.118/30</f>
-        <v>0.53726666666666667</v>
-      </c>
-      <c r="P9" s="7">
-        <f>2.637/30</f>
-        <v>8.7900000000000006E-2</v>
+      <c r="O9" s="13">
+        <f>10.328/30</f>
+        <v>0.34426666666666667</v>
+      </c>
+      <c r="P9" s="13">
+        <f>7.014/30</f>
+        <v>0.23380000000000001</v>
       </c>
       <c r="Q9" s="6">
         <v>9999</v>
@@ -1302,13 +1320,13 @@
       <c r="T9" s="8">
         <v>0</v>
       </c>
-      <c r="U9" s="8">
-        <f>411.627/30</f>
-        <v>13.7209</v>
-      </c>
-      <c r="V9" s="8">
-        <f>386.868/30</f>
-        <v>12.8956</v>
+      <c r="U9" s="14">
+        <f>179.91525/30</f>
+        <v>5.9971749999999995</v>
+      </c>
+      <c r="V9" s="14">
+        <f>280.794/30</f>
+        <v>9.3597999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>

--- a/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7DAACF-055F-41DD-B217-66002E878728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79A3C9-01A4-4040-AB30-529996D89FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,11 +1345,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.31674999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s3/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79A3C9-01A4-4040-AB30-529996D89FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584AC89-F237-4B9F-945F-EC3C25804779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2136" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="12">
-        <v>0.63349999999999995</v>
+        <v>0.53080000000000005</v>
       </c>
       <c r="P4" s="12">
         <v>0.20349999999999999</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.31674999999999998</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
@@ -969,7 +969,7 @@
         <v>3.9049999999999998</v>
       </c>
       <c r="O5" s="12">
-        <v>1.6359999999999999</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="P5" s="12">
         <v>0.628</v>
